--- a/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E2FEEA-D5A4-4017-9D01-06152F68AC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FFE772-077D-44E7-95BA-CDE67E385080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BAEBE1D-06EF-4E18-9ECF-8FCF49CB88C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E648DBD4-33B3-40A3-9EE3-A1A6618742AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="221">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>92,24%</t>
   </si>
   <si>
-    <t>56,84%</t>
+    <t>64,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>87,17%</t>
+    <t>84,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,16%</t>
+    <t>35,59%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>12,83%</t>
+    <t>15,91%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -145,7 +145,7 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>77,09%</t>
+    <t>77,22%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -154,13 +154,13 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>88,05%</t>
+    <t>88,32%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>22,78%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -169,7 +169,7 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>11,95%</t>
+    <t>11,68%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -193,7 +193,7 @@
     <t>93,71%</t>
   </si>
   <si>
-    <t>71,16%</t>
+    <t>70,13%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -202,13 +202,13 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>85,27%</t>
+    <t>85,2%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>28,84%</t>
+    <t>29,87%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -217,7 +217,7 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>14,73%</t>
+    <t>14,8%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -250,67 +250,67 @@
     <t>96,37%</t>
   </si>
   <si>
-    <t>88,67%</t>
+    <t>88,78%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>3,95%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,99%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -319,19 +319,13 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>97,51%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -340,7 +334,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -349,16 +343,10 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>2,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -385,42 +373,36 @@
     <t>97,0%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>85,21%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>93,25%</t>
+    <t>93,13%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>14,79%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>6,87%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
     <t>98,56%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
@@ -466,58 +448,64 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>93,38%</t>
+    <t>91,48%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
+    <t>96,0%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>8,52%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
+    <t>4,0%</t>
+  </si>
+  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,83%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
@@ -526,21 +514,27 @@
     <t>96,31%</t>
   </si>
   <si>
-    <t>84,53%</t>
+    <t>82,92%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
+    <t>87,33%</t>
+  </si>
+  <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>15,47%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
+    <t>12,67%</t>
+  </si>
+  <si>
     <t>96,25%</t>
   </si>
   <si>
@@ -562,49 +556,49 @@
     <t>94,82%</t>
   </si>
   <si>
-    <t>84,02%</t>
+    <t>84,15%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>91,91%</t>
+    <t>92,59%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>15,98%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>8,09%</t>
+    <t>7,41%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>91,15%</t>
+    <t>88,39%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>93,74%</t>
+    <t>93,37%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>8,85%</t>
+    <t>11,61%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>6,26%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -646,7 +640,7 @@
     <t>96,41%</t>
   </si>
   <si>
-    <t>87,57%</t>
+    <t>89,5%</t>
   </si>
   <si>
     <t>97,38%</t>
@@ -655,13 +649,10 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>12,43%</t>
+    <t>10,5%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -670,13 +661,10 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>96,72%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -688,10 +676,7 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>98,0%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -703,7 +688,7 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -712,13 +697,10 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,0%</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7629722E-D321-443E-A011-749D9B20C641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC747B8-35B2-47FA-9334-3FA597905AD9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2512,10 +2494,10 @@
         <v>92</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M28" s="7">
         <v>450</v>
@@ -2524,13 +2506,13 @@
         <v>451793</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2527,13 @@
         <v>2960</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2560,13 +2542,13 @@
         <v>2660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2575,13 +2557,13 @@
         <v>5619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2619,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56755C84-DCCE-4BD1-A8FA-0985DCC1D2F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F86024-E22F-4C59-9C70-30CD104FFA8E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2678,7 +2660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2783,39 +2765,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,39 +2810,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,39 +2855,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,7 +2907,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2940,7 +2922,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2949,7 +2931,7 @@
         <v>123</v>
       </c>
       <c r="N7" s="7">
-        <v>140333</v>
+        <v>140332</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -2979,7 +2961,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2994,7 +2976,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3009,7 +2991,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3033,7 @@
         <v>123</v>
       </c>
       <c r="N9" s="7">
-        <v>140333</v>
+        <v>140332</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -3077,10 +3059,10 @@
         <v>32607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3107,10 +3089,10 @@
         <v>74357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3128,13 +3110,13 @@
         <v>1007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3158,13 +3140,13 @@
         <v>1007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -3250,7 +3232,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3265,7 +3247,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3289,7 +3271,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3304,7 +3286,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3319,7 +3301,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,7 +3402,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3474,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3527,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3560,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3599,7 +3581,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3614,7 +3596,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3700,7 +3682,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -3715,7 +3697,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3730,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3754,7 +3736,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3769,7 +3751,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3784,7 +3766,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3837,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3867,10 +3849,10 @@
         <v>81183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3882,10 +3864,10 @@
         <v>135999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3909,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3918,13 +3900,13 @@
         <v>1077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3933,13 +3915,13 @@
         <v>1077</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,10 +3989,10 @@
         <v>349115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4022,10 +4004,10 @@
         <v>433445</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -4037,10 +4019,10 @@
         <v>782561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4058,13 +4040,13 @@
         <v>1007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4073,13 +4055,13 @@
         <v>1077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4088,13 +4070,13 @@
         <v>2083</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,7 +4132,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4174,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7755219-F990-4A3C-94F4-328084B15AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6F0FA-CEBC-4067-8AFA-7C87BEDD836A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4191,7 +4173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4313,10 +4295,10 @@
         <v>25507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4328,10 +4310,10 @@
         <v>45862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4364,13 +4346,13 @@
         <v>977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4379,13 +4361,13 @@
         <v>977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4438,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4471,7 +4453,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4486,7 +4468,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4510,7 +4492,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4525,7 +4507,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4540,7 +4522,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,10 +4590,10 @@
         <v>36427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4638,10 +4620,10 @@
         <v>81300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4659,13 +4641,13 @@
         <v>1988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4689,13 +4671,13 @@
         <v>1988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,10 +4760,10 @@
         <v>47218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4793,10 +4775,10 @@
         <v>84253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4829,13 +4811,13 @@
         <v>1016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4844,13 +4826,13 @@
         <v>1016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4903,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4936,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4951,7 +4933,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4975,7 +4957,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4990,7 +4972,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5005,7 +4987,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5058,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5091,7 +5073,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5106,7 +5088,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5130,7 +5112,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5145,7 +5127,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5160,7 +5142,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5213,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5261,7 +5243,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -5285,7 +5267,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5315,7 +5297,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5365,10 @@
         <v>63613</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5401,7 +5383,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5413,10 +5395,10 @@
         <v>152040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5434,13 +5416,13 @@
         <v>2367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5455,7 +5437,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5464,13 +5446,13 @@
         <v>2367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5520,13 @@
         <v>306836</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -5553,10 +5535,10 @@
         <v>372275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5568,13 +5550,13 @@
         <v>679110</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5571,13 @@
         <v>4355</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5604,13 +5586,13 @@
         <v>1993</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5619,13 +5601,13 @@
         <v>6349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,7 +5663,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FFE772-077D-44E7-95BA-CDE67E385080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC422F20-01A8-4DA7-898A-7B6EE5953FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E648DBD4-33B3-40A3-9EE3-A1A6618742AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1A48B45-3A18-4C57-81FD-1C852A95A25B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="229">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>92,24%</t>
   </si>
   <si>
-    <t>64,41%</t>
+    <t>59,33%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>84,09%</t>
+    <t>84,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,59%</t>
+    <t>40,67%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>15,91%</t>
+    <t>15,82%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -145,7 +145,7 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>77,22%</t>
+    <t>79,6%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -154,13 +154,13 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>88,32%</t>
+    <t>90,42%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>22,78%</t>
+    <t>20,4%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -169,7 +169,7 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>11,68%</t>
+    <t>9,58%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -193,7 +193,7 @@
     <t>93,71%</t>
   </si>
   <si>
-    <t>70,13%</t>
+    <t>70,71%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -202,13 +202,13 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>85,2%</t>
+    <t>81,41%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>29,87%</t>
+    <t>29,29%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -217,7 +217,7 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>14,8%</t>
+    <t>18,59%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -250,13 +250,13 @@
     <t>96,37%</t>
   </si>
   <si>
-    <t>88,78%</t>
+    <t>88,56%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>92,5%</t>
+    <t>93,56%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -265,13 +265,13 @@
     <t>3,63%</t>
   </si>
   <si>
-    <t>11,22%</t>
+    <t>11,44%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>7,5%</t>
+    <t>6,44%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -283,13 +283,13 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>93,54%</t>
+    <t>91,94%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>96,05%</t>
+    <t>96,44%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -298,19 +298,19 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>8,06%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,95%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -319,90 +319,108 @@
     <t>99,0%</t>
   </si>
   <si>
+    <t>97,31%</t>
+  </si>
+  <si>
     <t>99,68%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
@@ -448,13 +466,13 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>91,48%</t>
+    <t>93,32%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>96,06%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -463,25 +481,25 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>8,52%</t>
+    <t>6,68%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,55%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,57%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -493,13 +511,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -508,31 +526,31 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>82,92%</t>
+    <t>81,79%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>87,33%</t>
+    <t>89,55%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>17,08%</t>
+    <t>18,21%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>12,67%</t>
+    <t>10,45%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -556,49 +574,49 @@
     <t>94,82%</t>
   </si>
   <si>
-    <t>84,15%</t>
+    <t>84,42%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>92,59%</t>
+    <t>91,38%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>15,85%</t>
+    <t>15,58%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>7,41%</t>
+    <t>8,62%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>88,39%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>93,37%</t>
+    <t>94,75%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -640,7 +658,7 @@
     <t>96,41%</t>
   </si>
   <si>
-    <t>89,5%</t>
+    <t>88,73%</t>
   </si>
   <si>
     <t>97,38%</t>
@@ -649,10 +667,13 @@
     <t>98,47%</t>
   </si>
   <si>
+    <t>94,83%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>10,5%</t>
+    <t>11,27%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -661,10 +682,13 @@
     <t>1,53%</t>
   </si>
   <si>
+    <t>5,17%</t>
+  </si>
+  <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>96,49%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -673,13 +697,13 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -688,19 +712,19 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC747B8-35B2-47FA-9334-3FA597905AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F58CAE-A96C-4622-A5C6-C7FBC5CAEA5B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2494,10 +2518,10 @@
         <v>92</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M28" s="7">
         <v>450</v>
@@ -2506,13 +2530,13 @@
         <v>451793</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2551,13 @@
         <v>2960</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2542,13 +2566,13 @@
         <v>2660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2557,13 +2581,13 @@
         <v>5619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2643,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F86024-E22F-4C59-9C70-30CD104FFA8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C568DBE-1A67-4E8C-B2E3-9DD05AEF31B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2660,7 +2684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,39 +2789,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,39 +2834,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,39 +2879,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,7 +2931,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2922,7 +2946,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2931,7 +2955,7 @@
         <v>123</v>
       </c>
       <c r="N7" s="7">
-        <v>140332</v>
+        <v>140333</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -2961,7 +2985,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2976,7 +3000,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2991,7 +3015,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3057,7 @@
         <v>123</v>
       </c>
       <c r="N9" s="7">
-        <v>140332</v>
+        <v>140333</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -3059,10 +3083,10 @@
         <v>32607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3089,10 +3113,10 @@
         <v>74357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3110,13 +3134,13 @@
         <v>1007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3140,13 +3164,13 @@
         <v>1007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3241,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -3232,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3247,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3271,7 +3295,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3286,7 +3310,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3301,7 +3325,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3426,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3456,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3542,7 +3566,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3581,7 +3605,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3596,7 +3620,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3682,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -3697,7 +3721,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3706,13 +3730,13 @@
         <v>127</v>
       </c>
       <c r="N22" s="7">
-        <v>144066</v>
+        <v>144067</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3736,7 +3760,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3751,7 +3775,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3766,7 +3790,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3832,7 @@
         <v>127</v>
       </c>
       <c r="N24" s="7">
-        <v>144066</v>
+        <v>144067</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>15</v>
@@ -3837,7 +3861,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3849,10 +3873,10 @@
         <v>81183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3864,10 +3888,10 @@
         <v>135999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3891,7 +3915,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3900,13 +3924,13 @@
         <v>1077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3915,13 +3939,13 @@
         <v>1077</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,10 +4013,10 @@
         <v>349115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4004,10 +4028,10 @@
         <v>433445</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -4019,10 +4043,10 @@
         <v>782561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4040,13 +4064,13 @@
         <v>1007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4055,13 +4079,13 @@
         <v>1077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4070,13 +4094,13 @@
         <v>2083</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4156,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6F0FA-CEBC-4067-8AFA-7C87BEDD836A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF04A715-06AA-4BA5-B51B-6B807B41C424}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4173,7 +4197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4295,10 +4319,10 @@
         <v>25507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4310,10 +4334,10 @@
         <v>45862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4346,13 +4370,13 @@
         <v>977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4361,13 +4385,13 @@
         <v>977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4462,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4453,7 +4477,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4468,7 +4492,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4492,7 +4516,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4507,7 +4531,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4522,7 +4546,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4614,10 @@
         <v>36427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4620,10 +4644,10 @@
         <v>81300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4641,13 +4665,13 @@
         <v>1988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4671,13 +4695,13 @@
         <v>1988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,10 +4784,10 @@
         <v>47218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4775,10 +4799,10 @@
         <v>84253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4811,13 +4835,13 @@
         <v>1016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4826,13 +4850,13 @@
         <v>1016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4927,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4918,7 +4942,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4933,7 +4957,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4957,7 +4981,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4972,7 +4996,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4987,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,7 +5082,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5073,7 +5097,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5088,7 +5112,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5112,7 +5136,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5127,7 +5151,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5142,7 +5166,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,7 +5237,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5243,7 +5267,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -5267,7 +5291,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5297,7 +5321,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,10 +5389,10 @@
         <v>63613</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5383,7 +5407,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5395,10 +5419,10 @@
         <v>152040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5416,13 +5440,13 @@
         <v>2367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5437,7 +5461,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5446,13 +5470,13 @@
         <v>2367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5544,13 @@
         <v>306836</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -5535,10 +5559,10 @@
         <v>372275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5550,13 +5574,13 @@
         <v>679110</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5595,13 @@
         <v>4355</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5586,13 +5610,13 @@
         <v>1993</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5601,13 +5625,13 @@
         <v>6349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,7 +5687,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC422F20-01A8-4DA7-898A-7B6EE5953FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBDAE4B8-6BDC-43E8-B00D-821224027994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1A48B45-3A18-4C57-81FD-1C852A95A25B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15A98486-8D7D-4A9C-8494-9C70CA339E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="227">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>59,33%</t>
+    <t>56,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>84,18%</t>
+    <t>87,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>40,67%</t>
+    <t>43,16%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>15,82%</t>
+    <t>12,83%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -145,7 +145,7 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>79,6%</t>
+    <t>77,09%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -154,13 +154,13 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>90,42%</t>
+    <t>88,05%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>20,4%</t>
+    <t>22,91%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -169,7 +169,7 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>9,58%</t>
+    <t>11,95%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -193,7 +193,7 @@
     <t>93,71%</t>
   </si>
   <si>
-    <t>70,71%</t>
+    <t>71,16%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -202,13 +202,13 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>81,41%</t>
+    <t>85,27%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>29,29%</t>
+    <t>28,84%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -217,7 +217,7 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>18,59%</t>
+    <t>14,73%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -250,13 +250,13 @@
     <t>96,37%</t>
   </si>
   <si>
-    <t>88,56%</t>
+    <t>88,67%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>93,56%</t>
+    <t>93,54%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -265,13 +265,13 @@
     <t>3,63%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>6,44%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -283,13 +283,13 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>91,94%</t>
+    <t>92,81%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>96,44%</t>
+    <t>96,06%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -298,19 +298,19 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>7,19%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,64%</t>
+    <t>95,99%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -319,7 +319,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,31%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -328,10 +328,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -340,7 +340,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -349,16 +349,16 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -385,25 +385,25 @@
     <t>97,0%</t>
   </si>
   <si>
-    <t>84,93%</t>
+    <t>83,12%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,25%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>15,07%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,75%</t>
   </si>
   <si>
     <t>96,64%</t>
@@ -466,265 +466,259 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>93,32%</t>
+    <t>93,38%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
     <t>3,82%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>6,62%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F58CAE-A96C-4622-A5C6-C7FBC5CAEA5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E0702D-7B9F-4A3F-9ECB-29E8FA441CE7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2667,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C568DBE-1A67-4E8C-B2E3-9DD05AEF31B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34696BC3-23B1-47F5-A51F-89385ACB50B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3730,7 +3724,7 @@
         <v>127</v>
       </c>
       <c r="N22" s="7">
-        <v>144067</v>
+        <v>144066</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>13</v>
@@ -3832,7 +3826,7 @@
         <v>127</v>
       </c>
       <c r="N24" s="7">
-        <v>144067</v>
+        <v>144066</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>15</v>
@@ -3891,7 +3885,7 @@
         <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3915,7 +3909,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3924,13 +3918,13 @@
         <v>1077</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3939,13 +3933,13 @@
         <v>1077</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,10 +4007,10 @@
         <v>349115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4028,10 +4022,10 @@
         <v>433445</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -4043,10 +4037,10 @@
         <v>782561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4064,13 +4058,13 @@
         <v>1007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4079,13 +4073,13 @@
         <v>1077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4094,13 +4088,13 @@
         <v>2083</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF04A715-06AA-4BA5-B51B-6B807B41C424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79510196-DFD3-4A9C-AC2C-DB25A8900253}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,7 +4191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4319,10 +4313,10 @@
         <v>25507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4334,10 +4328,10 @@
         <v>45862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4370,13 +4364,13 @@
         <v>977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4385,13 +4379,13 @@
         <v>977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4477,7 +4471,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4492,7 +4486,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4516,7 +4510,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4531,7 +4525,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4546,7 +4540,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,10 +4608,10 @@
         <v>36427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4644,10 +4638,10 @@
         <v>81300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4665,13 +4659,13 @@
         <v>1988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4695,13 +4689,13 @@
         <v>1988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,10 +4778,10 @@
         <v>47218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4799,10 +4793,10 @@
         <v>84253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4835,13 +4829,13 @@
         <v>1016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4850,13 +4844,13 @@
         <v>1016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,7 +4921,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4942,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4957,7 +4951,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4981,7 +4975,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4996,7 +4990,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5011,7 +5005,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,7 +5076,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5097,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5112,7 +5106,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5136,7 +5130,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5151,7 +5145,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5166,7 +5160,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,7 +5231,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5267,7 +5261,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -5291,7 +5285,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5321,7 +5315,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,10 +5383,10 @@
         <v>63613</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5407,7 +5401,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5419,10 +5413,10 @@
         <v>152040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5440,13 +5434,13 @@
         <v>2367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5461,7 +5455,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5470,13 +5464,13 @@
         <v>2367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5538,13 @@
         <v>306836</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -5559,10 +5553,10 @@
         <v>372275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5574,13 +5568,13 @@
         <v>679110</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5589,13 @@
         <v>4355</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5610,13 +5604,13 @@
         <v>1993</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5625,13 +5619,13 @@
         <v>6349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBDAE4B8-6BDC-43E8-B00D-821224027994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FBE4A7E-D740-46F7-8196-14353F023112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15A98486-8D7D-4A9C-8494-9C70CA339E6C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A913739A-E585-4314-9092-163445FCE622}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="230">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -367,7 +367,22 @@
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -406,22 +421,22 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>97,14%</t>
@@ -635,12 +650,6 @@
   </si>
   <si>
     <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
   </si>
   <si>
     <t>96,41%</t>
@@ -1130,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E0702D-7B9F-4A3F-9ECB-29E8FA441CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800AAB4E-E56F-4C74-A940-7D19E9E375F4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2661,7 +2670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34696BC3-23B1-47F5-A51F-89385ACB50B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BF6A6-019E-4A5F-A8D2-63694BF1E073}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2779,43 +2788,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24648</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>27474</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>52122</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,41 +2841,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,43 +2890,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>24648</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>27474</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="N6" s="7">
+        <v>52122</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2940,7 +2967,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2979,7 +3006,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2994,7 +3021,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3077,10 +3104,10 @@
         <v>32607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3107,10 +3134,10 @@
         <v>74357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3128,13 +3155,13 @@
         <v>1007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3158,13 +3185,13 @@
         <v>1007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,46 +3253,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>63914</v>
+        <v>39266</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>79463</v>
+        <v>51989</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>143376</v>
+        <v>91254</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3289,7 +3316,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3304,7 +3331,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3319,7 +3346,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,10 +3355,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>63914</v>
+        <v>39266</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3343,10 +3370,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I15" s="7">
-        <v>79463</v>
+        <v>51989</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3358,10 +3385,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="N15" s="7">
-        <v>143376</v>
+        <v>91254</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3420,7 +3447,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3474,7 +3501,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3572,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3560,7 +3587,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3599,7 +3626,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3614,7 +3641,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3700,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -3715,7 +3742,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3724,13 +3751,13 @@
         <v>127</v>
       </c>
       <c r="N22" s="7">
-        <v>144066</v>
+        <v>144067</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3754,7 +3781,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3769,7 +3796,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3784,7 +3811,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3853,7 @@
         <v>127</v>
       </c>
       <c r="N24" s="7">
-        <v>144066</v>
+        <v>144067</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>15</v>
@@ -3855,7 +3882,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3867,10 +3894,10 @@
         <v>81183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3882,7 +3909,7 @@
         <v>135999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>90</v>
@@ -3909,7 +3936,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3918,13 +3945,13 @@
         <v>1077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3933,7 +3960,7 @@
         <v>1077</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
@@ -4007,10 +4034,10 @@
         <v>349115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4019,13 +4046,13 @@
         <v>398</v>
       </c>
       <c r="I28" s="7">
-        <v>433445</v>
+        <v>433446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -4037,10 +4064,10 @@
         <v>782561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4058,13 +4085,13 @@
         <v>1007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4073,13 +4100,13 @@
         <v>1077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4088,13 +4115,13 @@
         <v>2083</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4148,7 @@
         <v>399</v>
       </c>
       <c r="I30" s="7">
-        <v>434522</v>
+        <v>434523</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -4174,7 +4201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79510196-DFD3-4A9C-AC2C-DB25A8900253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35431A3-2F38-4C27-8938-7C29D2C67F93}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4191,7 +4218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4313,10 +4340,10 @@
         <v>25507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4328,7 +4355,7 @@
         <v>45862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>70</v>
@@ -4364,13 +4391,13 @@
         <v>977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4379,7 +4406,7 @@
         <v>977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
@@ -4456,7 +4483,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4471,7 +4498,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4486,7 +4513,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4510,7 +4537,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4525,7 +4552,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4540,7 +4567,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,10 +4635,10 @@
         <v>36427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4638,10 +4665,10 @@
         <v>81300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4659,13 +4686,13 @@
         <v>1988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4689,13 +4716,13 @@
         <v>1988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,10 +4805,10 @@
         <v>47218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4793,10 +4820,10 @@
         <v>84253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4829,13 +4856,13 @@
         <v>1016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4844,13 +4871,13 @@
         <v>1016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4948,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4936,7 +4963,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4951,7 +4978,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4975,7 +5002,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4990,7 +5017,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5005,7 +5032,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5103,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5091,7 +5118,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5106,7 +5133,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5130,7 +5157,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5145,7 +5172,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5160,7 +5187,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5258,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5261,7 +5288,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -5285,7 +5312,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5315,7 +5342,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5410,10 @@
         <v>63613</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5401,7 +5428,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5413,10 +5440,10 @@
         <v>152040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5434,13 +5461,13 @@
         <v>2367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5455,7 +5482,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5464,13 +5491,13 @@
         <v>2367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5565,13 @@
         <v>306836</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -5553,10 +5580,10 @@
         <v>372275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5568,13 +5595,13 @@
         <v>679110</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5616,13 @@
         <v>4355</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5604,13 +5631,13 @@
         <v>1993</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5619,13 +5646,13 @@
         <v>6349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
